--- a/data/base_scenario/archetypes/pop_archetypes_transport.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_transport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B98BBB-773C-48CB-B02E-BCB311EDBA36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE45CBDF-D02E-4C24-83C9-A33910F6FAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>UB_CNG</t>
+  </si>
+  <si>
+    <t>Ekm_mu</t>
+  </si>
+  <si>
+    <t>E_km_sigma</t>
   </si>
 </sst>
 </file>
@@ -167,9 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,22 +533,23 @@
     <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,43 +575,49 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -626,10 +642,10 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>0</v>
       </c>
       <c r="K2">
@@ -662,8 +678,14 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -688,18 +710,18 @@
       <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K3">
         <v>28.082000000000001</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>27.716000000000001</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
@@ -707,25 +729,31 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>77.561000000000007</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>77.441000000000003</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -750,24 +778,24 @@
       <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="I4" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.35399999999999998</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -775,19 +803,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>80</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>10</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>60</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -812,18 +846,18 @@
       <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K5">
         <v>26.052</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>24.905999999999999</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
@@ -831,25 +865,31 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>74.953000000000003</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>72.042000000000002</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -874,18 +914,18 @@
       <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K6">
         <v>21.087</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>22.878</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <v>0</v>
       </c>
@@ -893,25 +933,31 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>28.704000000000001</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>48.301000000000002</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -936,18 +982,18 @@
       <c r="H7">
         <v>0.1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
         <v>304.64299999999997</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>47.996000000000002</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
@@ -955,25 +1001,31 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>692.77300000000002</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>246.19900000000001</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -998,24 +1050,24 @@
       <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="I8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.1</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>6.3150000000000004</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.35</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -1023,19 +1075,25 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>80</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>10</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>60</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1060,18 +1118,18 @@
       <c r="H9">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K9">
         <v>361.52499999999998</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>48.143999999999998</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
         <v>0</v>
       </c>
@@ -1079,41 +1137,47 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>471.46699999999998</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>388.81700000000001</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 H3:J6 A10:XFD1048576 A7:F9 H2:XFD2 M3:XFD6 M7:N9 Q7:XFD9 A2:G6">
+  <conditionalFormatting sqref="A7:F9 O3:XFD6 O7:P9 S7:XFD9 A1:G6 H1:XFD1 H2:H6 K2:XFD2 K3:L6 A10:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:L4">
+  <conditionalFormatting sqref="M4:N4">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:L3">
+  <conditionalFormatting sqref="M3:N3">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L6">
+  <conditionalFormatting sqref="M5:N6">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1123,37 +1187,37 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:J9">
+  <conditionalFormatting sqref="K7:L9">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:L7">
+  <conditionalFormatting sqref="M7:N7">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9">
+  <conditionalFormatting sqref="M9:N9">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L8">
+  <conditionalFormatting sqref="M8:N8">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:P9">
+  <conditionalFormatting sqref="Q9:R9">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:P8">
+  <conditionalFormatting sqref="Q8:R8">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P7">
+  <conditionalFormatting sqref="Q7:R7">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/data/base_scenario/archetypes/pop_archetypes_transport.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_transport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7DF13-3E24-4C72-A53F-C2326F4388A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C396A032-8EBF-4DA4-BCD8-5E6165F424D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>charging_station</t>
+  </si>
+  <si>
+    <t>mjkm_max</t>
+  </si>
+  <si>
+    <t>mjkm_min</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
+  </si>
+  <si>
+    <t>share_mob_hubs</t>
   </si>
 </sst>
 </file>
@@ -207,7 +219,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -544,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,18 +585,19 @@
     <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,31 +647,37 @@
         <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -715,8 +744,14 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -772,25 +807,31 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>77.561000000000007</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>77.441000000000003</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -840,10 +881,10 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -852,19 +893,25 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>80</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>10</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>60</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -920,25 +967,31 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>74.953000000000003</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>72.042000000000002</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -994,25 +1047,31 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>28.704000000000001</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>48.301000000000002</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1068,25 +1127,31 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>692.77300000000002</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>246.19900000000001</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1136,10 +1201,10 @@
         <v>1.35</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1148,19 +1213,25 @@
         <v>0</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>80</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>10</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>60</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1216,82 +1287,178 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>471.46699999999998</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>388.81700000000001</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>999</v>
+      </c>
+      <c r="R10">
+        <v>0.222</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:H9 Q3:XFD6 Q7:R9 U7:XFD9 A1:I6 J1:XFD1 J2:J6 M2:XFD2 M3:N6 A10:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="S8:T8 W7:XFD9 A1:I6 J2:J6 M3:N6 J1:XFD1 Q4 S2:XFD4 M2:R2 T5:XFD6 Q8 T7 T9 A11:XFD1048576 A7:H10 AA10:XFD10">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:P4">
+  <conditionalFormatting sqref="O4:P4 R4">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:R3">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:S6">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:P3">
+  <conditionalFormatting sqref="I7:J9">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:P6">
+  <conditionalFormatting sqref="M7:N9">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:J9">
+  <conditionalFormatting sqref="O7:S7">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:N9">
+  <conditionalFormatting sqref="O9:S9">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P7">
+  <conditionalFormatting sqref="O8:P8 R8">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:P9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="U9:V9">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:P8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="U8:V8">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:T9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="U7:V7">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:T8">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="I10:J10 M10:N10 Q10 S10:Z10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:T7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="O10:P10 R10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
